--- a/test-case2.xlsx
+++ b/test-case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FB08E1-D879-4B38-9071-BEADF33D28ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062243E-89D7-4136-B6D0-4FAA794CBEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="131">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -152,6 +152,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「アカウント登録」ボタン押下後にアカウント登録画面に遷移するか確認</t>
     <rPh sb="31" eb="33">
       <t>カクニン</t>
@@ -759,9 +763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「要求された形式に一致させてください」の表示</t>
-  </si>
-  <si>
     <t>1.ひらがな、漢字のみ入力する</t>
     <rPh sb="7" eb="9">
       <t>カンジ</t>
@@ -1146,13 +1147,120 @@
       <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境　</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央に表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された値に対して●で表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーと表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ内容で登録しようとすると、データベース</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1273,19 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1183,12 +1304,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1197,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,6 +1342,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,7 +1385,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A5:I25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I27" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目"/>
@@ -1251,7 +1402,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A114:I128" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A116:I130" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目"/>
@@ -1584,93 +1735,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A4:I125"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="56" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1680,7 +1856,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1692,7 +1868,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1702,7 +1884,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1714,7 +1896,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1724,7 +1912,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1736,7 +1924,13 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1746,7 +1940,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1758,17 +1952,23 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1780,105 +1980,135 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1890,78 +2120,107 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
         <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1970,15 +2229,21 @@
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1987,15 +2252,21 @@
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2004,134 +2275,182 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+      <c r="G50" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>24</v>
-      </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
         <v>25</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -2145,10 +2464,16 @@
       <c r="F56" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -2157,15 +2482,21 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -2179,10 +2510,16 @@
       <c r="F60" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -2191,15 +2528,21 @@
         <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -2208,15 +2551,21 @@
         <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
         <v>101</v>
       </c>
+      <c r="G64" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -2225,15 +2574,21 @@
         <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
         <v>101</v>
       </c>
+      <c r="G66" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
@@ -2242,15 +2597,21 @@
         <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
@@ -2262,88 +2623,101 @@
         <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="G70" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>59</v>
       </c>
       <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
         <v>97</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F74" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73" t="s">
+      <c r="G74" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
@@ -2356,6 +2730,12 @@
       </c>
       <c r="F79" t="s">
         <v>108</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2363,9 +2743,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -2379,15 +2759,21 @@
       <c r="F81" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G81" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -2401,15 +2787,21 @@
       <c r="F83" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G83" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -2423,15 +2815,21 @@
       <c r="F85" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G85" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
@@ -2443,17 +2841,23 @@
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
@@ -2465,17 +2869,26 @@
         <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+      <c r="G89" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H89" t="s">
+        <v>127</v>
+      </c>
+      <c r="I89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
@@ -2489,15 +2902,21 @@
       <c r="F91" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G91" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
@@ -2511,15 +2930,21 @@
       <c r="F93" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G93" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
@@ -2533,15 +2958,21 @@
       <c r="F95" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G95" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -2554,6 +2985,12 @@
       </c>
       <c r="F97" t="s">
         <v>108</v>
+      </c>
+      <c r="G97" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2563,7 +3000,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
@@ -2576,6 +3013,12 @@
       </c>
       <c r="F99" t="s">
         <v>108</v>
+      </c>
+      <c r="G99" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2585,7 +3028,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
@@ -2597,7 +3040,13 @@
         <v>102</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G101" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2607,7 +3056,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -2619,7 +3068,13 @@
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="G103" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2629,139 +3084,163 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>75</v>
       </c>
       <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>107</v>
+      </c>
+      <c r="G105" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" t="s">
         <v>104</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D106" t="s">
-        <v>76</v>
+      <c r="G107" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H107" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="1" t="s">
+    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
         <v>50</v>
       </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>77</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>78</v>
+      </c>
+      <c r="E112" t="s">
         <v>112</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E111" t="s">
+      <c r="G112" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115">
-        <v>51</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E116" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -2773,7 +3252,16 @@
         <v>110</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="G117" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H117" t="s">
+        <v>125</v>
+      </c>
+      <c r="I117" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2781,53 +3269,64 @@
         <v>111</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
+        <v>110</v>
+      </c>
+      <c r="F119" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="3">
+        <v>45786</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="1" t="s">
+      <c r="E120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121">
-        <v>53</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E121" t="s">
-        <v>87</v>
-      </c>
-      <c r="F121" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
@@ -2841,10 +3340,16 @@
       <c r="F123" t="s">
         <v>85</v>
       </c>
+      <c r="G123" s="3">
+        <v>45789</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
@@ -2858,8 +3363,40 @@
       <c r="F125" t="s">
         <v>86</v>
       </c>
+      <c r="G125" s="3">
+        <v>45789</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" t="s">
+        <v>90</v>
+      </c>
+      <c r="F127" t="s">
+        <v>87</v>
+      </c>
+      <c r="G127" s="3">
+        <v>45789</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/test-case2.xlsx
+++ b/test-case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062243E-89D7-4136-B6D0-4FAA794CBEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A849F5F-799B-4C15-B45B-476536B3E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="132">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -690,6 +690,13 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面URL</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1333,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,9 +1348,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1355,14 +1359,218 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1387,22 +1595,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I27" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A116:I130" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A118:I134" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目"/>
@@ -1735,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="56" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1755,40 +1963,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="5">
         <v>45789</v>
       </c>
     </row>
@@ -1827,861 +2035,1258 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
+      <c r="G14" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" t="s">
+      <c r="G16" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" t="s">
+      <c r="G18" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" t="s">
+      <c r="G20" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" t="s">
+      <c r="G22" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" t="s">
+      <c r="G24" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" t="s">
+      <c r="G26" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" t="s">
+      <c r="G28" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" t="s">
+      <c r="G30" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" t="s">
+      <c r="G32" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" t="s">
+      <c r="G34" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+      <c r="G36" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+      <c r="G38" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4">
         <v>17</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+      <c r="G40" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4">
         <v>18</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+      <c r="G42" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4">
         <v>19</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+      <c r="G44" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4">
         <v>20</v>
       </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+      <c r="G46" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+      <c r="G48" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+      <c r="G50" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4">
         <v>23</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+      <c r="G52" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4">
         <v>24</v>
       </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+      <c r="G54" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4">
+        <v>26</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4">
+        <v>28</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="4">
+        <v>29</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="4">
+        <v>30</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4">
+        <v>31</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="4">
+        <v>32</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="4">
+        <v>33</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="4">
+        <v>34</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>26</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>30</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>31</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>33</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>34</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
@@ -2716,682 +3321,935 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>35</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E79" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="4">
+        <v>36</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="4">
+        <v>37</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="4">
+        <v>38</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4">
+        <v>39</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="4">
+        <v>40</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="4">
+        <v>41</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="4">
+        <v>42</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="4">
+        <v>43</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="4">
+        <v>44</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="4">
+        <v>45</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="4">
+        <v>46</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="4">
+        <v>47</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="4">
+        <v>48</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G79" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>36</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>37</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>38</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>39</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <v>40</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
-        <v>67</v>
-      </c>
-      <c r="E89" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G105" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="4">
+        <v>49</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="4">
+        <v>50</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="4">
+        <v>51</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
-        <v>42</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
-        <v>43</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" t="s">
-        <v>102</v>
-      </c>
-      <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
-        <v>44</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" t="s">
-        <v>102</v>
-      </c>
-      <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
-        <v>45</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" t="s">
-        <v>102</v>
-      </c>
-      <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
-        <v>46</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>73</v>
-      </c>
-      <c r="E101" t="s">
-        <v>102</v>
-      </c>
-      <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103">
-        <v>47</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
-        <v>48</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107">
-        <v>49</v>
-      </c>
-      <c r="B107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" t="s">
-        <v>104</v>
-      </c>
-      <c r="F107" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H107" t="s">
-        <v>127</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D108" t="s">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="1" t="s">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="4">
+        <v>52</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G121" s="6">
+        <v>45786</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" s="1" t="s">
+      <c r="G126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112">
-        <v>50</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>78</v>
-      </c>
-      <c r="E112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-      <c r="G112" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117">
-        <v>51</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>80</v>
-      </c>
-      <c r="E117" t="s">
-        <v>110</v>
-      </c>
-      <c r="F117" t="s">
-        <v>113</v>
-      </c>
-      <c r="G117" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H117" t="s">
-        <v>125</v>
-      </c>
-      <c r="I117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E118" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119">
-        <v>52</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" t="s">
-        <v>110</v>
-      </c>
-      <c r="F119" t="s">
-        <v>114</v>
-      </c>
-      <c r="G119" s="3">
-        <v>45786</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E120" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="4">
         <v>53</v>
       </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>82</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G127" s="6">
+        <v>45789</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="4">
+        <v>54</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" s="6">
+        <v>45789</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="4">
+        <v>55</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F123" t="s">
-        <v>85</v>
-      </c>
-      <c r="G123" s="3">
+      <c r="G131" s="6">
         <v>45789</v>
       </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125">
-        <v>54</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>83</v>
-      </c>
-      <c r="E125" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" t="s">
-        <v>86</v>
-      </c>
-      <c r="G125" s="3">
-        <v>45789</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127">
-        <v>55</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127" t="s">
-        <v>90</v>
-      </c>
-      <c r="F127" t="s">
-        <v>87</v>
-      </c>
-      <c r="G127" s="3">
-        <v>45789</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
+      <c r="H131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test-case2.xlsx
+++ b/test-case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD655E36-86FD-4081-9DFE-5867B0409DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BBBF63-7345-4339-A3C3-E2D6569E027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -1927,7 +1927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,19 +1949,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2539,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2557,7 +2551,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2568,7 +2562,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>109</v>
       </c>
@@ -2577,7 +2571,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2586,7 +2580,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
@@ -4818,19 +4812,19 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F127" s="6"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4845,7 +4839,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="10" t="s">
+      <c r="I128" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4860,7 +4854,7 @@
       <c r="D129" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -4881,19 +4875,13 @@
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">

--- a/test-case2.xlsx
+++ b/test-case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BBBF63-7345-4339-A3C3-E2D6569E027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
